--- a/Employees Table.xlsx
+++ b/Employees Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{826D9397-420E-4225-9E0D-FA73FFCA7F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93EE7CA-AFCF-4AE2-A740-DF3DBBA01624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{84CD94A1-95CE-42C2-AACC-AB6A042A2D3B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>emp_id</t>
   </si>
@@ -140,48 +140,6 @@
   </si>
   <si>
     <t>Black</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Intern</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Brook</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Holt</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Ross</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8825ABC-F541-4F2C-B5CD-162AE06631E6}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1405,186 +1365,25 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>44803</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15">
-        <v>66000</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>45132</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1">
-        <v>44489</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1">
-        <v>43966</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18">
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1">
-        <v>43842</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1">
-        <v>45035</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20">
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>44251</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21">
-        <v>59000</v>
-      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
